--- a/Reporte/REPORTES DORA.xlsx
+++ b/Reporte/REPORTES DORA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAIA\APIs Chats\WatsonComandato\apiWatson\Reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A98DF36-B566-46E9-B114-402DCE2BEF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5BFFCA-7218-4CB3-BDA6-F5EC69E28050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="48">
   <si>
     <t>WHATSAPP</t>
   </si>
@@ -36,15 +36,6 @@
   </si>
   <si>
     <t>TELEFONO CLIENTE</t>
-  </si>
-  <si>
-    <t>ENTIDADES</t>
-  </si>
-  <si>
-    <t>MENSAJE CLIENTE</t>
-  </si>
-  <si>
-    <t>INTENCIÓN</t>
   </si>
   <si>
     <t>estado</t>
@@ -151,12 +142,42 @@
   <si>
     <t>CANAL MENSAJERIA</t>
   </si>
+  <si>
+    <t>BRYAN AGRCIA</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>televisor</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>Tipo Producto</t>
+  </si>
+  <si>
+    <t>Nombre Producto</t>
+  </si>
+  <si>
+    <t>Televisor</t>
+  </si>
+  <si>
+    <t>LED ZN56 + KIT LIMPIEZA</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Dayana Bailon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,20 +194,26 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0056B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8FF83"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,9 +267,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -251,7 +284,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -266,16 +299,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -286,8 +316,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD8FF83"/>
       <color rgb="FF0056B3"/>
-      <color rgb="FFD8FF83"/>
     </mruColors>
   </colors>
   <extLst>
@@ -502,7 +532,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -516,13 +546,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1560,191 +1590,1039 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A73" sqref="A73:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="60.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.75" style="4" customWidth="1"/>
-    <col min="7" max="26" width="9.375" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="12.625" style="4"/>
+    <col min="1" max="1" width="12.625" style="4"/>
+    <col min="2" max="2" width="18" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41" style="4" customWidth="1"/>
+    <col min="6" max="24" width="9.375" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="12.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5">
+        <v>980546307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5">
+        <v>98925516366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5">
+        <v>98925516366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5">
+        <v>98925516366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="5">
+        <v>98925516366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="5">
+        <v>98925516366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="4">
+        <v>3</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="5">
+        <v>98925516366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>3</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="5">
+        <v>98925516366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>1</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>2</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>3</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="5">
+        <v>98925516366</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>1</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>2</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>3</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="5">
+        <v>98925516366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>1</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>2</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>3</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="5">
+        <v>98925516366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>1</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="12"/>
+    </row>
+    <row r="65" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>2</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>3</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>2</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="5">
+        <v>98925516366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>1</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>2</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="12"/>
+    </row>
+    <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>3</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>2</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="5">
+        <v>98925516366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>1</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="12"/>
+    </row>
+    <row r="77" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>2</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="12"/>
+    </row>
+    <row r="78" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>3</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2665,6 +3543,7 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2702,60 +3581,60 @@
   <sheetData>
     <row r="1" spans="1:26" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="9">
         <v>593987648370</v>
@@ -2764,19 +3643,19 @@
         <v>2.02008231047449E+16</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I2" s="8">
         <v>2</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K2" s="8">
         <v>1734</v>
@@ -2785,13 +3664,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N2" s="8">
         <v>3</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -2807,13 +3686,13 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9">
         <v>593987648370</v>
@@ -2822,19 +3701,19 @@
         <v>2.02008231047449E+16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I3" s="8">
         <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K3" s="8">
         <v>1821</v>
@@ -2843,13 +3722,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N3" s="8">
         <v>3</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -2865,13 +3744,13 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5">
         <v>593999851126</v>
@@ -2880,19 +3759,19 @@
         <v>2.02008231305171E+16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K4" s="3">
         <v>1808</v>
@@ -2901,13 +3780,13 @@
         <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Reporte/REPORTES DORA.xlsx
+++ b/Reporte/REPORTES DORA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAIA\APIs Chats\WatsonComandato\apiWatson\Reporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAIA\chatbotComandato\apiWatson-master\Reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5BFFCA-7218-4CB3-BDA6-F5EC69E28050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA43FD82-6C34-4643-A33C-AB1F2C0240D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intenciones Clientes" sheetId="1" r:id="rId1"/>
@@ -27,112 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="48">
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>NOMBRES CLIENTE</t>
-  </si>
-  <si>
-    <t>TELEFONO CLIENTE</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>canalMensajeria</t>
-  </si>
-  <si>
-    <t>nombresCliente</t>
-  </si>
-  <si>
-    <t>telefonoCliente</t>
-  </si>
-  <si>
-    <t>numeroReferencia</t>
-  </si>
-  <si>
-    <t>fechaCreacion</t>
-  </si>
-  <si>
-    <t>fechaUltimaModificacion</t>
-  </si>
-  <si>
-    <t>fechaFinalizacion</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>nombreProducto</t>
-  </si>
-  <si>
-    <t>idProductoBot</t>
-  </si>
-  <si>
-    <t>estadoDetalle</t>
-  </si>
-  <si>
-    <t>precioProducto</t>
-  </si>
-  <si>
-    <t>identificadorMetodoPago</t>
-  </si>
-  <si>
-    <t>metodoPago</t>
-  </si>
-  <si>
-    <t>creado</t>
-  </si>
-  <si>
-    <t>Dayana Helen</t>
-  </si>
-  <si>
-    <t>2020-08-23 10:47:44.960</t>
-  </si>
-  <si>
-    <t>2020-08-23 12:19:02.473</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Oled LG OLED65C8 65" - Color Plateado</t>
-  </si>
-  <si>
-    <t>2507.56</t>
-  </si>
-  <si>
-    <t>Tarjeta de Crédito</t>
-  </si>
-  <si>
-    <t>Lavadora Automática -  Mabe - LMA70200WDAB1  | 20 Kg – Silver</t>
-  </si>
-  <si>
-    <t>487.64</t>
-  </si>
-  <si>
-    <t>finalizado</t>
-  </si>
-  <si>
-    <t>Héctor García</t>
-  </si>
-  <si>
-    <t>2020-08-23 13:05:17.153</t>
-  </si>
-  <si>
-    <t>2020-08-23 13:06:40.693</t>
-  </si>
-  <si>
-    <t>Tablet Lenovo TAB M10 - Pantalla 10.1" - Color Negro</t>
-  </si>
-  <si>
-    <t>500.04</t>
-  </si>
-  <si>
-    <t>Crédito Directo Comandato</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>INTENCIONES CLIENTES</t>
   </si>
@@ -142,78 +37,55 @@
   <si>
     <t>CANAL MENSAJERIA</t>
   </si>
-  <si>
-    <t>BRYAN AGRCIA</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>televisor</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>Tipo Producto</t>
-  </si>
-  <si>
-    <t>Nombre Producto</t>
-  </si>
-  <si>
-    <t>Televisor</t>
-  </si>
-  <si>
-    <t>LED ZN56 + KIT LIMPIEZA</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Dayana Bailon</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,12 +95,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0056B3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8FF83"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,44 +135,42 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -316,8 +180,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0056B3"/>
       <color rgb="FFD8FF83"/>
-      <color rgb="FF0056B3"/>
     </mruColors>
   </colors>
   <extLst>
@@ -531,64 +395,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="10" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="27" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="40.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="11" customWidth="1"/>
+    <col min="5" max="27" width="9.375" style="11" customWidth="1"/>
+    <col min="28" max="16384" width="12.625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
+      <c r="A1" s="3" t="s">
+        <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1592,1034 +1457,448 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:D78"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="4"/>
-    <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41" style="4" customWidth="1"/>
-    <col min="6" max="24" width="9.375" style="4" customWidth="1"/>
-    <col min="25" max="16384" width="12.625" style="4"/>
+    <col min="1" max="1" width="24.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="68.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="41" style="8" customWidth="1"/>
+    <col min="6" max="24" width="9.375" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="12.625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="5">
-        <v>980546307</v>
-      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="12"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="5">
-        <v>98925516366</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="5">
-        <v>98925516366</v>
-      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4">
-        <v>3</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="5">
-        <v>98925516366</v>
-      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="12"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="5">
-        <v>98925516366</v>
-      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="12"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="4">
-        <v>3</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>2</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="5">
-        <v>98925516366</v>
-      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="12"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3">
-        <v>2</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="12"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="4">
-        <v>3</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>2</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="5">
-        <v>98925516366</v>
-      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>1</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="12"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>3</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>2</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="5">
-        <v>98925516366</v>
-      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>1</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="12"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>2</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="12"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>3</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>2</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="5">
-        <v>98925516366</v>
-      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>1</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="12"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>2</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="12"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>3</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>2</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="5">
-        <v>98925516366</v>
-      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>1</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="12"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>2</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" s="12"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>3</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>2</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="5">
-        <v>98925516366</v>
-      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>1</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="12"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>2</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="12"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>3</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="9"/>
     </row>
     <row r="67" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>2</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68" s="5">
-        <v>98925516366</v>
-      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>1</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="12"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="9"/>
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>2</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D71" s="12"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="9"/>
     </row>
     <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>3</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>2</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" s="5">
-        <v>98925516366</v>
-      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="A75" s="2"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>1</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="12"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="9"/>
     </row>
     <row r="77" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>2</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D77" s="12"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>3</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3546,261 +2825,80 @@
     <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="59.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="20" style="4" customWidth="1"/>
-    <col min="14" max="14" width="30.125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="24.25" style="4" customWidth="1"/>
-    <col min="16" max="26" width="9.375" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="12.625" style="4"/>
+    <col min="1" max="1" width="18.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="42.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="48.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="59.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="18.875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="6" customWidth="1"/>
+    <col min="13" max="13" width="20" style="6" customWidth="1"/>
+    <col min="14" max="14" width="30.125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="24.25" style="6" customWidth="1"/>
+    <col min="16" max="26" width="9.375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="9">
-        <v>593987648370</v>
-      </c>
-      <c r="E2" s="9">
-        <v>2.02008231047449E+16</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="8">
-        <v>2</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="8">
-        <v>1734</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="8">
-        <v>3</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="9">
-        <v>593987648370</v>
-      </c>
-      <c r="E3" s="9">
-        <v>2.02008231047449E+16</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="8">
-        <v>1821</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="8">
-        <v>3</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5">
-        <v>593999851126</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2.02008231305171E+16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1808</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4787,6 +3885,6 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reporte/REPORTES DORA.xlsx
+++ b/Reporte/REPORTES DORA.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAIA\chatbotComandato\apiWatson-master\Reporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAIA\APIs Chats\WatsonComandato\apiWatson\Reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA43FD82-6C34-4643-A33C-AB1F2C0240D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD35F43-AC36-46FB-919B-8B85C0C0C7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intenciones Clientes" sheetId="1" r:id="rId1"/>
     <sheet name="INTENCION DE COMPRAR" sheetId="2" r:id="rId2"/>
     <sheet name="SEGUIMIENTO CARRITO" sheetId="3" r:id="rId3"/>
+    <sheet name="CARRITOS OLVIDADOS" sheetId="4" r:id="rId4"/>
+    <sheet name="TICKETS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -133,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +173,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2833,8 +2838,1066 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="42.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="48.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="59.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="18.875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="6" customWidth="1"/>
+    <col min="13" max="13" width="20" style="6" customWidth="1"/>
+    <col min="14" max="14" width="30.125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="24.25" style="6" customWidth="1"/>
+    <col min="16" max="26" width="9.375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC136C81-E47B-49EB-BF90-9D899CC5D998}">
+  <dimension ref="A1:O1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2878,6 +3941,1068 @@
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FF3D49-A659-4BC5-A08B-A35BA1AE5A46}">
+  <dimension ref="A1:O1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="57.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="48.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="59.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="18.875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="6" customWidth="1"/>
+    <col min="13" max="13" width="20" style="6" customWidth="1"/>
+    <col min="14" max="14" width="30.125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="24.25" style="6" customWidth="1"/>
+    <col min="16" max="26" width="9.375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="7"/>
